--- a/xlsx/infsup.xlsx
+++ b/xlsx/infsup.xlsx
@@ -342,13 +342,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>231</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>Inf</v>
       </c>
       <c r="D2">
-        <v>231</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <v>Inf</v>
@@ -359,16 +359,16 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>233</v>
+        <v>57</v>
       </c>
       <c r="C3">
-        <v>0.00012572876027648483</v>
+        <v>Inf</v>
       </c>
       <c r="D3">
-        <v>233</v>
+        <v>57</v>
       </c>
       <c r="E3">
-        <v>0.00012572876027648483</v>
+        <v>Inf</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -376,16 +376,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="C4">
-        <v>0.0001533167293347718</v>
+        <v>Inf</v>
       </c>
       <c r="D4">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="E4">
-        <v>0.0001328686269728181</v>
+        <v>0.00018076968736988535</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -393,16 +393,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="C5">
-        <v>0.0002578037625089208</v>
+        <v>Inf</v>
       </c>
       <c r="D5">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="E5">
-        <v>0.00011752557639086678</v>
+        <v>Inf</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -410,16 +410,16 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="C6">
-        <v>0.00016199240471580833</v>
+        <v>Inf</v>
       </c>
       <c r="D6">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.00012243241566992517</v>
+        <v>Inf</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -427,16 +427,16 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="C7">
-        <v>0.00012348619796756773</v>
+        <v>Inf</v>
       </c>
       <c r="D7">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="E7">
-        <v>0.00012348619796756773</v>
+        <v>Inf</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -444,16 +444,16 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>251</v>
+        <v>145</v>
       </c>
       <c r="C8">
         <v>Inf</v>
       </c>
       <c r="D8">
-        <v>251</v>
+        <v>145</v>
       </c>
       <c r="E8">
-        <v>0.00011324137352198046</v>
+        <v>Inf</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -461,13 +461,13 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>262</v>
+        <v>147</v>
       </c>
       <c r="C9">
         <v>Inf</v>
       </c>
       <c r="D9">
-        <v>262</v>
+        <v>147</v>
       </c>
       <c r="E9">
         <v>Inf</v>
@@ -478,13 +478,13 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>283</v>
+        <v>147</v>
       </c>
       <c r="C10">
         <v>Inf</v>
       </c>
       <c r="D10">
-        <v>283</v>
+        <v>147</v>
       </c>
       <c r="E10">
         <v>Inf</v>
@@ -495,13 +495,13 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>313</v>
+        <v>147</v>
       </c>
       <c r="C11">
         <v>Inf</v>
       </c>
       <c r="D11">
-        <v>313</v>
+        <v>147</v>
       </c>
       <c r="E11">
         <v>Inf</v>
@@ -512,13 +512,13 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>351</v>
+        <v>147</v>
       </c>
       <c r="C12">
         <v>Inf</v>
       </c>
       <c r="D12">
-        <v>351</v>
+        <v>147</v>
       </c>
       <c r="E12">
         <v>Inf</v>
@@ -529,13 +529,13 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>397</v>
+        <v>147</v>
       </c>
       <c r="C13">
         <v>Inf</v>
       </c>
       <c r="D13">
-        <v>397</v>
+        <v>147</v>
       </c>
       <c r="E13">
         <v>Inf</v>
@@ -546,13 +546,13 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>452</v>
+        <v>147</v>
       </c>
       <c r="C14">
         <v>Inf</v>
       </c>
       <c r="D14">
-        <v>452</v>
+        <v>147</v>
       </c>
       <c r="E14">
         <v>Inf</v>
@@ -563,13 +563,13 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>510</v>
+        <v>147</v>
       </c>
       <c r="C15">
         <v>Inf</v>
       </c>
       <c r="D15">
-        <v>510</v>
+        <v>147</v>
       </c>
       <c r="E15">
         <v>Inf</v>
@@ -580,13 +580,13 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>575</v>
+        <v>147</v>
       </c>
       <c r="C16">
         <v>Inf</v>
       </c>
       <c r="D16">
-        <v>575</v>
+        <v>147</v>
       </c>
       <c r="E16">
         <v>Inf</v>
